--- a/node初体验/tmp/module.xlsx
+++ b/node初体验/tmp/module.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23223\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683EB4F8-215A-4B2B-9B6C-61CACE81F86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C73D1D0-8602-4248-BAF9-F978A584C855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{BF3C7D93-061F-4C2E-BDB1-AC4677616BC7}"/>
+    <workbookView xWindow="0" yWindow="2124" windowWidth="30720" windowHeight="14364" xr2:uid="{BF3C7D93-061F-4C2E-BDB1-AC4677616BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB43BBA-67DF-4E59-9004-81E8436ACC5E}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -422,31 +422,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1245</v>
+        <v>456</v>
       </c>
       <c r="B2">
-        <v>5555</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>256826</v>
+        <v>4356</v>
       </c>
       <c r="B3">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>245</v>
-      </c>
-      <c r="B4">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>254</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/node初体验/tmp/module.xlsx
+++ b/node初体验/tmp/module.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23223\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C73D1D0-8602-4248-BAF9-F978A584C855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683EB4F8-215A-4B2B-9B6C-61CACE81F86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2124" windowWidth="30720" windowHeight="14364" xr2:uid="{BF3C7D93-061F-4C2E-BDB1-AC4677616BC7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{BF3C7D93-061F-4C2E-BDB1-AC4677616BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB43BBA-67DF-4E59-9004-81E8436ACC5E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -422,18 +422,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>456</v>
+        <v>1245</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4356</v>
+        <v>256826</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>245</v>
+      </c>
+      <c r="B4">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
